--- a/Assets/06.Table/TowerTable8.xlsx
+++ b/Assets/06.Table/TowerTable8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E050128E-D07E-4B25-AF3B-5FF4C8B86B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1061DF-760F-49C9-BD8D-1BBD7BEAEECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable8" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -702,7 +702,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>51</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>51</v>
       </c>
       <c r="D4" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="1">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>51</v>
       </c>
       <c r="D14" s="1">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="1">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="1">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E16">
         <v>1</v>
